--- a/InterviewTest/output/230003/230003_failed.xlsx
+++ b/InterviewTest/output/230003/230003_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE0FDE-BA90-4D91-BA4E-2F12D101270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275F8092-78AA-4AA2-B8F7-28A2DE93CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230003/230003_failed.xlsx
+++ b/InterviewTest/output/230003/230003_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275F8092-78AA-4AA2-B8F7-28A2DE93CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7658E6C-8720-4110-B2FB-FE1202D8B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230003/230003_failed.xlsx
+++ b/InterviewTest/output/230003/230003_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7658E6C-8720-4110-B2FB-FE1202D8B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522EB8E-9B95-456B-B655-DA4247AF6B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230003/230003_failed.xlsx
+++ b/InterviewTest/output/230003/230003_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522EB8E-9B95-456B-B655-DA4247AF6B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A93008-0786-4C12-BA00-88B58D9CC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39479</v>
+        <v>39449</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230003/230003_failed.xlsx
+++ b/InterviewTest/output/230003/230003_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A93008-0786-4C12-BA00-88B58D9CC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920D7675-C57D-406A-8354-D1FE2A1D7BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
